--- a/WIP/equaliserVacc/output.xlsx
+++ b/WIP/equaliserVacc/output.xlsx
@@ -429,19 +429,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>192.5</v>
+        <v>166.03</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -450,19 +450,19 @@
         <v>0.1</v>
       </c>
       <c r="C3">
-        <v>186</v>
+        <v>154.3468316831683</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>6</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -471,19 +471,19 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <v>180</v>
+        <v>153.5228830506813</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -492,10 +492,10 @@
         <v>0.3</v>
       </c>
       <c r="C5">
-        <v>178</v>
+        <v>136.292305772779</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -504,7 +504,7 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -513,10 +513,10 @@
         <v>0.4</v>
       </c>
       <c r="C6">
-        <v>182</v>
+        <v>129.783374732815</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -534,19 +534,19 @@
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>176</v>
+        <v>117.7503304428992</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -555,19 +555,19 @@
         <v>0.6</v>
       </c>
       <c r="C8">
-        <v>145</v>
+        <v>107.1757296169905</v>
       </c>
       <c r="D8">
         <v>11</v>
       </c>
       <c r="E8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -576,19 +576,19 @@
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>122</v>
+        <v>84.90976133859738</v>
       </c>
       <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
         <v>10</v>
       </c>
-      <c r="E9">
-        <v>13</v>
-      </c>
       <c r="F9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -597,19 +597,19 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C10">
-        <v>112</v>
+        <v>59.98961466647192</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -618,19 +618,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C11">
-        <v>70</v>
+        <v>42.42339440619694</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -639,19 +639,19 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>4.054341499410543</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="F12">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>74</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>316</v>
+        <v>288.449770623958</v>
       </c>
       <c r="D13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -674,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -683,7 +683,7 @@
         <v>0.1</v>
       </c>
       <c r="C14">
-        <v>316</v>
+        <v>290.7767304022174</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -704,19 +704,19 @@
         <v>0.2</v>
       </c>
       <c r="C15">
-        <v>316</v>
+        <v>267.6177499370255</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -725,10 +725,10 @@
         <v>0.3</v>
       </c>
       <c r="C16">
-        <v>315</v>
+        <v>265.6496806924458</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -746,7 +746,7 @@
         <v>0.4</v>
       </c>
       <c r="C17">
-        <v>315</v>
+        <v>277.3985396274782</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -767,19 +767,19 @@
         <v>0.5</v>
       </c>
       <c r="C18">
-        <v>266</v>
+        <v>244.0838449842312</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -788,19 +788,19 @@
         <v>0.6</v>
       </c>
       <c r="C19">
-        <v>301</v>
+        <v>245.7533053958835</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19">
         <v>2</v>
       </c>
       <c r="G19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -809,19 +809,19 @@
         <v>0.7</v>
       </c>
       <c r="C20">
-        <v>287</v>
+        <v>221.9733987957427</v>
       </c>
       <c r="D20">
         <v>8</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -830,19 +830,19 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C21">
-        <v>266</v>
+        <v>184.2527042371237</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -851,19 +851,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C22">
-        <v>252</v>
+        <v>127.2665033203662</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>9</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -872,19 +872,19 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C23">
-        <v>58</v>
+        <v>15.39979496364368</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E23">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F23">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G23">
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>372</v>
+        <v>350.1692641150522</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -916,13 +916,13 @@
         <v>0.1</v>
       </c>
       <c r="C25">
-        <v>374</v>
+        <v>342.5264283575748</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -937,13 +937,13 @@
         <v>0.2</v>
       </c>
       <c r="C26">
-        <v>394</v>
+        <v>340.653009964585</v>
       </c>
       <c r="D26">
         <v>4</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -958,7 +958,7 @@
         <v>0.3</v>
       </c>
       <c r="C27">
-        <v>355</v>
+        <v>327.5372997525328</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -979,10 +979,10 @@
         <v>0.4</v>
       </c>
       <c r="C28">
-        <v>368</v>
+        <v>322.6389831658666</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -1000,16 +1000,16 @@
         <v>0.5</v>
       </c>
       <c r="C29">
-        <v>356</v>
+        <v>316.2538513184739</v>
       </c>
       <c r="D29">
         <v>5</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29">
         <v>4</v>
@@ -1021,7 +1021,7 @@
         <v>0.6</v>
       </c>
       <c r="C30">
-        <v>359</v>
+        <v>289.01602612024</v>
       </c>
       <c r="D30">
         <v>6</v>
@@ -1030,10 +1030,10 @@
         <v>3</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1042,7 +1042,7 @@
         <v>0.7</v>
       </c>
       <c r="C31">
-        <v>352</v>
+        <v>272.3961982784182</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -1051,10 +1051,10 @@
         <v>3</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1063,19 +1063,19 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C32">
-        <v>336</v>
+        <v>226.5979821611724</v>
       </c>
       <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32">
         <v>7</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32">
-        <v>3</v>
-      </c>
-      <c r="G32">
-        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1084,16 +1084,16 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C33">
-        <v>274</v>
+        <v>162.8748625150122</v>
       </c>
       <c r="D33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G33">
         <v>11</v>
@@ -1105,19 +1105,19 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C34">
-        <v>104</v>
+        <v>39.49694869531807</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F34">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>407</v>
+        <v>388.4578308294511</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1149,7 +1149,7 @@
         <v>0.1</v>
       </c>
       <c r="C36">
-        <v>412</v>
+        <v>377.9253250577173</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -1158,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>2</v>
@@ -1170,7 +1170,7 @@
         <v>0.2</v>
       </c>
       <c r="C37">
-        <v>410</v>
+        <v>368.2863893570071</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1179,10 +1179,10 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1191,19 +1191,19 @@
         <v>0.3</v>
       </c>
       <c r="C38">
-        <v>424</v>
+        <v>363.9533305876932</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1212,16 +1212,16 @@
         <v>0.4</v>
       </c>
       <c r="C39">
-        <v>405</v>
+        <v>361.0444426025034</v>
       </c>
       <c r="D39">
         <v>4</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -1233,19 +1233,19 @@
         <v>0.5</v>
       </c>
       <c r="C40">
-        <v>400</v>
+        <v>325.9806380455694</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1254,19 +1254,19 @@
         <v>0.6</v>
       </c>
       <c r="C41">
-        <v>384</v>
+        <v>314.7423825549066</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1275,7 +1275,7 @@
         <v>0.7</v>
       </c>
       <c r="C42">
-        <v>356</v>
+        <v>275.4577636137266</v>
       </c>
       <c r="D42">
         <v>6</v>
@@ -1284,7 +1284,7 @@
         <v>3</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>5</v>
@@ -1296,7 +1296,7 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C43">
-        <v>356</v>
+        <v>261.816413501126</v>
       </c>
       <c r="D43">
         <v>6</v>
@@ -1305,10 +1305,10 @@
         <v>4</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1317,19 +1317,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C44">
-        <v>319</v>
+        <v>175.0110208215692</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F44">
         <v>3</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1338,16 +1338,16 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C45">
-        <v>127</v>
+        <v>53.67823201500118</v>
       </c>
       <c r="D45">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E45">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F45">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G45">
         <v>23</v>
@@ -1361,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>429</v>
+        <v>411.3513648192376</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1382,7 +1382,7 @@
         <v>0.1</v>
       </c>
       <c r="C47">
-        <v>435</v>
+        <v>407.442276144705</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -1403,7 +1403,7 @@
         <v>0.2</v>
       </c>
       <c r="C48">
-        <v>423</v>
+        <v>394.8756661004426</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -1424,7 +1424,7 @@
         <v>0.3</v>
       </c>
       <c r="C49">
-        <v>432</v>
+        <v>384.483917486143</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -1433,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -1445,7 +1445,7 @@
         <v>0.4</v>
       </c>
       <c r="C50">
-        <v>432</v>
+        <v>373.2820189850113</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -1454,10 +1454,10 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1466,19 +1466,19 @@
         <v>0.5</v>
       </c>
       <c r="C51">
-        <v>432</v>
+        <v>361.6185405743827</v>
       </c>
       <c r="D51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1487,7 +1487,7 @@
         <v>0.6</v>
       </c>
       <c r="C52">
-        <v>396</v>
+        <v>337.4714706987563</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1508,16 +1508,16 @@
         <v>0.7</v>
       </c>
       <c r="C53">
-        <v>416</v>
+        <v>312.1711914293249</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>4</v>
@@ -1529,10 +1529,10 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C54">
-        <v>402</v>
+        <v>248.2690216973201</v>
       </c>
       <c r="D54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -1541,7 +1541,7 @@
         <v>2</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1550,19 +1550,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C55">
-        <v>314</v>
+        <v>172.2863306311526</v>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E55">
         <v>6</v>
       </c>
       <c r="F55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G55">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1571,19 +1571,19 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C56">
-        <v>136</v>
+        <v>66.75110143247777</v>
       </c>
       <c r="D56">
+        <v>12</v>
+      </c>
+      <c r="E56">
+        <v>12</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
         <v>21</v>
-      </c>
-      <c r="E56">
-        <v>15</v>
-      </c>
-      <c r="F56">
-        <v>9</v>
-      </c>
-      <c r="G56">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
